--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_012.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_012.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295019AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Service air isolations</t>
-  </si>
-  <si>
-    <t>(295021AK2.07) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Reactor recirculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295023AA1.10) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Alternate fuel pool makeup systems</t>
-  </si>
-  <si>
-    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295025EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure control strategies</t>
-  </si>
-  <si>
-    <t>(295001AK2.09) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+    <t>(295018AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Securing individual components (preventing equipment damage)</t>
+  </si>
+  <si>
+    <t>(295038EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295037EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
+  </si>
+  <si>
+    <t>(295016AA1.11) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) RCIC</t>
+  </si>
+  <si>
+    <t>(295026EK2.12) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure effects on reactor water level</t>
+  </si>
+  <si>
+    <t>(700000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Actions contained in abnormal operating procedure for voltage and grid disturbances</t>
+  </si>
+  <si>
+    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire\u2019s extent of potential operational damage to plant equipment</t>
+  </si>
+  <si>
+    <t>(295027EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Hydrogen recombiners</t>
+  </si>
+  <si>
+    <t>(295024EK2.24) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Decay heat</t>
+  </si>
+  <si>
+    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
+  </si>
+  <si>
+    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
+  </si>
+  <si>
+    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295001AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal limits</t>
+  </si>
+  <si>
+    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
+  </si>
+  <si>
+    <t>(295033EA1.12) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Systems required for adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295013AK2.02) Knowledge of the relationship between the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valve operation</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295022AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactor pressure vs. rod insertion capability</t>
+  </si>
+  <si>
+    <t>(295035EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.5 / 45.6) Blow-out panel operation</t>
+  </si>
+  <si>
+    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
+  </si>
+  <si>
+    <t>(400000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Service water system</t>
+  </si>
+  <si>
+    <t>(300000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Instrument air supply pressure</t>
+  </si>
+  <si>
+    <t>(263000K2.04) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Inverters</t>
+  </si>
+  <si>
+    <t>(209002K4.07) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Override of reactor water level interlock</t>
+  </si>
+  <si>
+    <t>(223002A3.02) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Valve closures</t>
+  </si>
+  <si>
+    <t>(239002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Safety function of SRV operation</t>
+  </si>
+  <si>
+    <t>(205000A2.05) Ability to (a) predict the impacts of the following on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) System isolation</t>
+  </si>
+  <si>
+    <t>(261000K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Primary containment system and auxiliaries</t>
+  </si>
+  <si>
+    <t>(264000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
+  </si>
+  <si>
+    <t>(215003K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) Trip units</t>
+  </si>
+  <si>
+    <t>(262002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Motor generator outputs</t>
+  </si>
+  <si>
+    <t>(212000K2.02) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS logic</t>
+  </si>
+  <si>
+    <t>(215005K4.01) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Rod withdrawal blocks</t>
+  </si>
+  <si>
+    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
+  </si>
+  <si>
+    <t>(203000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Core cooling methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215004A2.05) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system </t>
+  </si>
+  <si>
+    <t>(211000K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) CRD system</t>
+  </si>
+  <si>
+    <t>(259002K3.01) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Reactor water level</t>
+  </si>
+  <si>
+    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (291004K1.07) PUMPS (CFR: 41.3) (CENTRIFUGAL) Starting current and operating current interpretation</t>
+  </si>
+  <si>
+    <t>(218000A4.01) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS valves</t>
+  </si>
+  <si>
+    <t>(400000K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(300000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
+  </si>
+  <si>
+    <t>(209002K4.11) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of piping overpressurization</t>
+  </si>
+  <si>
+    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(271000A4.03) Ability to manually operate and/or monitor the (SF9 OG) OFFGAS SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System temperatures</t>
+  </si>
+  <si>
+    <t>(201003K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(223001A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) Containment temperature</t>
+  </si>
+  <si>
+    <t>(256000K2.01) (SF2 CDS) CONDENSATE SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System pumps</t>
+  </si>
+  <si>
+    <t>(268000K4.01) Knowledge of (SF9 RW) RADWASTE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic isolation of radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(510001A3.02) Ability to monitor automatic operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.7 / 45.5) Valve alignment</t>
+  </si>
+  <si>
+    <t>(272000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM : (CFR: 41.7 / 45.4) Effect of hydrogen injection operation on process radiation indications</t>
+  </si>
+  <si>
+    <t>(288000A2.07) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(239003K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
+  </si>
+  <si>
+    <t>(216000K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) HPCI</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(292006K1.08) FISSION PRODUCT POISONS (CFR: 41.1) Describe the effects that xenon concentration has on flux shape and control rod patterns</t>
+  </si>
+  <si>
+    <t>(292005K1.07) CONTROL RODS (CFR: 41.1) Define control rod worth, differential CRW, and integral control rod worth</t>
+  </si>
+  <si>
+    <t>(292001K1.03) NEUTRONS (CFR: 41.1) Define thermal neutrons</t>
+  </si>
+  <si>
+    <t>(293010K1.05) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the effect of fast neutron irradiation on reactor vessel metals</t>
+  </si>
+  <si>
+    <t>(293008K1.19) THERMAL HYDRAULICS (CFR: 41.14) (CORE INLET SUBCOOLING) Define core inlet subcooling</t>
+  </si>
+  <si>
+    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(295016AA2.03) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
   </si>
   <si>
     <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
   </si>
   <si>
-    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295038EA1.06) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Plant ventilation systems</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295004AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Loss of breaker protection</t>
-  </si>
-  <si>
-    <t>(295018AK2.05) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295005AA2.08) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Electrical distribution status</t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295037EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) CRD hydraulics systems</t>
-  </si>
-  <si>
-    <t>(295006AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Recirculation pump speed reduction</t>
-  </si>
-  <si>
-    <t>(295026EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295035EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Secondary containment pressure</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295029EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RCIC</t>
-  </si>
-  <si>
-    <t>(295013AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.5 / 45.6) Limiting heat additions</t>
-  </si>
-  <si>
-    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
-  </si>
-  <si>
-    <t>(295036EK2.01) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Equipment and floor drain sumps and pumps</t>
-  </si>
-  <si>
-    <t>(217000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
-  </si>
-  <si>
-    <t>(263000K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Systems with DC components (e.g., valves, motors, solenoids, instruments)</t>
-  </si>
-  <si>
-    <t>(259002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Pump runout</t>
-  </si>
-  <si>
-    <t>(209001K1.14) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(262002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Inverter outputs</t>
-  </si>
-  <si>
-    <t>(218000A2.01) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
-  </si>
-  <si>
-    <t>(203000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.7 / 45.7) Emergency generator</t>
-  </si>
-  <si>
-    <t>(209002A3.08) Ability to monitor automatic operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(215005K4.10) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Bypassing an LPRM, APRM, or OPRM channel</t>
-  </si>
-  <si>
-    <t>(262001K2.03) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Major motor control centers/buses (480 volts and higher)</t>
-  </si>
-  <si>
-    <t>(400000A4.01) Ability to manually operate and/or monitor the (SF8 CCS) COMPONENT COOLING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) CCW indications and control</t>
-  </si>
-  <si>
-    <t>(510000K3.08) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Primary containment system and auxiliaries</t>
-  </si>
-  <si>
-    <t>(239002K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Vacuum breaker operation</t>
-  </si>
-  <si>
-    <t>(215003K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291006K1.07) HEAT EXCHANGERS AND CONDENSERS (CFR: 41.4) Control of heat exchanger temperatures</t>
-  </si>
-  <si>
-    <t>(264000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Gas generator temperature</t>
-  </si>
-  <si>
-    <t>(223002A2.12) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Plant pneumatic system failures</t>
-  </si>
-  <si>
-    <t>(261000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) Primary containment high pressure</t>
-  </si>
-  <si>
-    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
-  </si>
-  <si>
-    <t>(300000K4.05) Knowledge of (SF8 IA) INSTRUMENT AIR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maintaining dry air</t>
-  </si>
-  <si>
-    <t>(205000K2.01) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Pump motors</t>
-  </si>
-  <si>
-    <t>(217000A4.14) Ability to manually operate and/or monitor the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Resetting isolations</t>
-  </si>
-  <si>
-    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
-  </si>
-  <si>
-    <t>(259002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Moisture carryover/carryunder</t>
-  </si>
-  <si>
-    <t>(209001K1.15) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Residual heat removal system</t>
-  </si>
-  <si>
-    <t>(202002K4.08) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Recirculation loop flow control</t>
-  </si>
-  <si>
-    <t>(219000K2.01) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(233000A4.09) Ability to manually operate and/or monitor the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP in the control room: (CFR: 41.7 / 45.5 to 45.8) Fuel pool cooling system pumps</t>
-  </si>
-  <si>
-    <t>(272000K3.02) Knowledge of the effect that a loss or malfunction of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Gaseous effluent release monitoring</t>
-  </si>
-  <si>
-    <t>(239001K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM: (CFR: 41.5 / 45.3) Steam bypass capability</t>
-  </si>
-  <si>
-    <t>(256000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 CDS) CONDENSATE SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Offgas condenser</t>
-  </si>
-  <si>
-    <t>(271000) (SF9 OG) OFFGAS SYSTEM (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(202001A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) Vessel bottom head drain temperature</t>
-  </si>
-  <si>
-    <t>(510001A2.02) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(223001K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES: (CFR: 41.7 / 45.7) Containment hardened vent</t>
-  </si>
-  <si>
-    <t>(201003A2.08) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Low HCU accumulator pressure or high-level</t>
-  </si>
-  <si>
-    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292001K1.05) NEUTRONS (CFR: 41.1) Identify characteristics of good moderators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
-  </si>
-  <si>
-    <t>(292008K1.23) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Explain the necessity for rod pattern exchanges</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293006K1.20) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Describe the problems that will occur in emergency core cooling systems if the pumps are operated at lower than design flow for extended periods of time</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t>(600000AA2.12) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Location of vital equipment within fire zone</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA2.11) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell integrity</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295007AA2.02) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor power </t>
-  </si>
-  <si>
-    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295012AA2.02) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
-  </si>
-  <si>
-    <t>(211000A2.04) Ability to (a) predict the impacts of the following on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate SLCS system flow</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(218000A2.06) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS initiation signals present</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(209002A2.14) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(288000A2.08) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Loss of component cooling water system</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295017AA2.02) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Total number of curies released or release rate/duration</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(239002A2.05) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor pressure</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000A2.07) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical distribution failure </t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(239001A2.13) Ability to (a) predict the impacts of the following on the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High reactor water level </t>
+  </si>
+  <si>
+    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(234000A4.02) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Control rod drive system</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
   </si>
   <si>
     <t>K3</t>
   </si>
   <si>
-    <t>K1</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>K5</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295021</t>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295001</t>
   </si>
   <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295026</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295022</t>
   </si>
   <si>
     <t>295035</t>
   </si>
   <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
     <t>295034</t>
   </si>
   <si>
-    <t>295036</t>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>259002</t>
   </si>
   <si>
     <t>217000</t>
   </si>
   <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
     <t>218000</t>
   </si>
   <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>233000</t>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>510001</t>
   </si>
   <si>
     <t>272000</t>
   </si>
   <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292001</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295017</t>
+  </si>
+  <si>
+    <t>295009</t>
+  </si>
+  <si>
     <t>239001</t>
   </si>
   <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292003</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
     <t>204000</t>
   </si>
   <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>201005</t>
+    <t>234000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1582,7 +1582,7 @@
         <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1633,7 +1633,7 @@
         <v>3.1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.7</v>
+        <v>4.6</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2449,7 +2449,7 @@
         <v>3.5</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
